--- a/Actual Coding/Ada_posts.xlsx
+++ b/Actual Coding/Ada_posts.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>QN9VRA</t>
+          <t>YXFHYB</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7C7PPW</t>
+          <t>NYBBAT</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>I0XSC9</t>
+          <t>4LKZQN</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JS5TZW</t>
+          <t>A2ICY2</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2A5MVB</t>
+          <t>MUCR8U</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>WZWVKE</t>
+          <t>5XO7NO</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2ZN1P0</t>
+          <t>AU3280</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PX4IV0</t>
+          <t>KPN2EI</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FGAS4C</t>
+          <t>U3VD85</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D80TPU</t>
+          <t>9292J9</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ZCHKKY</t>
+          <t>7QKM9I</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9B55LN</t>
+          <t>82KENO</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NREDSZ</t>
+          <t>YY5ONV</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DLF5S1</t>
+          <t>BEW7AY</t>
         </is>
       </c>
     </row>
@@ -702,7 +702,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>XZKF8Q</t>
+          <t>3JODY3</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CSELVK</t>
+          <t>WNEAFV</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>QSOX7A</t>
+          <t>DHJEOW</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GPS7YF</t>
+          <t>USRDYL</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>I248AE</t>
+          <t>NVNK3L</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9B9RLE</t>
+          <t>YGN9YK</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FIQ1EU</t>
+          <t>VLFE78</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>X8VKS1</t>
+          <t>EG3BI5</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>98LX7B</t>
+          <t>41HEXV</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4BAR1C</t>
+          <t>8NERO7</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>E51D4T</t>
+          <t>XPXW6S</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2Q8LJB</t>
+          <t>SY6KUU</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C6CY0D</t>
+          <t>W63RDB</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>7XMNJ7</t>
+          <t>IQYLXR</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ROB95T</t>
+          <t>RN6FPV</t>
         </is>
       </c>
     </row>
@@ -958,7 +958,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EQ00NA</t>
+          <t>AB8X2X</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Z9G35U</t>
+          <t>M7GZX2</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>WSG2LX</t>
+          <t>B6FFOY</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>WCIWS4</t>
+          <t>UTAEI9</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>JHNR2H</t>
+          <t>YS1Z6V</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DY758T</t>
+          <t>ADUYJB</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EJNUL4</t>
+          <t>ZEKMD7</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>79U5C2</t>
+          <t>VKGBU5</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>X503JR</t>
+          <t>X0HA3P</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>J8N488</t>
+          <t>D93Q7I</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4JSD48</t>
+          <t>J3PQWO</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GIC36E</t>
+          <t>KQNCW9</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>FYNPF0</t>
+          <t>XW2W9G</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>J3BKJH</t>
+          <t>MRLBZ9</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>I0KJCP</t>
+          <t>HGY3XA</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5HZ0RN</t>
+          <t>OXAWGL</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>04SL5D</t>
+          <t>9NZ7VO</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>O60RQD</t>
+          <t>9A8TV7</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>012152</t>
+          <t>AC78FF</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>7AYLUH</t>
+          <t>BAXP9I</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>XN06EC</t>
+          <t>O4N9QV</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SIEWAB</t>
+          <t>E8HQG4</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>D1Z811</t>
+          <t>KTUAKH</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>KM2XFK</t>
+          <t>FIBULZ</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>N6M23I</t>
+          <t>C3J3M4</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>JFQ5EX</t>
+          <t>XE6SL9</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>IDF6I3</t>
+          <t>CAIWJM</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4R5KVN</t>
+          <t>RAXS2V</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>002JEA</t>
+          <t>BC3523</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6PSG3B</t>
+          <t>3N0I5U</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SG6C7V</t>
+          <t>ODRGEU</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0U8TS3</t>
+          <t>PR8HO4</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>144ROX</t>
+          <t>YAU29F</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1MZZRJ</t>
+          <t>WCW415</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>IKJCAM</t>
+          <t>YZ4UR0</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>099EB5</t>
+          <t>5WLB03</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>9QM8Z1</t>
+          <t>BJDY3A</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>KI9QSL</t>
+          <t>1PG46N</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3UC040</t>
+          <t>HX08UL</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2KI1FS</t>
+          <t>T1QWA8</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>457P9I</t>
+          <t>KAZ1ZO</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BYFZMM</t>
+          <t>VJFPLK</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PGIBNW</t>
+          <t>OQ1QU8</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>YCK8XO</t>
+          <t>UPKO0S</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>IMQAKX</t>
+          <t>99OZI5</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>FLE63K</t>
+          <t>EFFO7G</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MVQEF2</t>
+          <t>ZYUSTQ</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>9MJL0D</t>
+          <t>DPTXZN</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>KNSQIW</t>
+          <t>THSEL3</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>HZ69TB</t>
+          <t>Z86LC8</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>7SDR4Q</t>
+          <t>VHFILI</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GPPPAT</t>
+          <t>7GA22Q</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0RTMFY</t>
+          <t>HMK1JT</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>9SA84E</t>
+          <t>DY8SEQ</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>D4YK2K</t>
+          <t>0GAU2F</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>PPMSJE</t>
+          <t>PUBDX3</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>EG78I9</t>
+          <t>8YHPDC</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2KLKJS</t>
+          <t>KFGPNA</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PJP83K</t>
+          <t>MJ7HIN</t>
         </is>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>94G15H</t>
+          <t>HA7Y9S</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>XIG87U</t>
+          <t>OFFOOF</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MBPIGB</t>
+          <t>RFSY6C</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>U5C0PM</t>
+          <t>0YGYMW</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1XTY1E</t>
+          <t>Q1WQTB</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>TER3MD</t>
+          <t>3LOEFE</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>D9Y63O</t>
+          <t>S8L7W0</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3M0W7S</t>
+          <t>7GU6KL</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SS5YYL</t>
+          <t>BF84DV</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>F2W6RD</t>
+          <t>IS0PWL</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>D9Z4B8</t>
+          <t>9EEK87</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>K4O56T</t>
+          <t>QOYLCD</t>
         </is>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>RCL4G9</t>
+          <t>LLEYU7</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>4ZADFY</t>
+          <t>VAWGWM</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>EOGFM9</t>
+          <t>1EQAOY</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>GR0SBM</t>
+          <t>NPK0EE</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>03RG4P</t>
+          <t>FF8G6V</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>W2AEY6</t>
+          <t>X7FXY2</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>4OOT21</t>
+          <t>1DYDUW</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>XKGFNI</t>
+          <t>D480Z0</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>GI5E5M</t>
+          <t>SYEY2N</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>5PE1J0</t>
+          <t>6HJQKN</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>WQT6IG</t>
+          <t>JSMPSV</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>XRVN5W</t>
+          <t>YIJ0D7</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>7GLOFI</t>
+          <t>C0MTLL</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>BLMULI</t>
+          <t>CPBH3B</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>HXQ8UI</t>
+          <t>P52O7L</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>IUI3NX</t>
+          <t>2YF3JD</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>KH19H1</t>
+          <t>DX7YNX</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>S5I1DO</t>
+          <t>F5QSQP</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0CYVLQ</t>
+          <t>OQ61EN</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>RPR8QX</t>
+          <t>5EKT63</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>UFAOGV</t>
+          <t>4FH7TK</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ZR3W6K</t>
+          <t>LZ3PD1</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>21ZEKD</t>
+          <t>L9J1CJ</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>UV1ZIS</t>
+          <t>HFJWZT</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>NN46F8</t>
+          <t>7BNP5W</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>UHEQWY</t>
+          <t>I60L1P</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>9GYBHR</t>
+          <t>YFB4OM</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1O9KSQ</t>
+          <t>6CCNCU</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>3TL6JS</t>
+          <t>DAL6CP</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>JGDK9J</t>
+          <t>2EXZBD</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>IOWNSA</t>
+          <t>8FEY74</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Q5JME3</t>
+          <t>QZVFDR</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>CIPEMU</t>
+          <t>FV1RQ1</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>FE6512</t>
+          <t>IBHNG0</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Q7I72P</t>
+          <t>41BF8H</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>POKDRC</t>
+          <t>7TB8OY</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>J37LOU</t>
+          <t>CAJ5K7</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>6WGK6Z</t>
+          <t>VTEFMR</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>UMCNXK</t>
+          <t>7NP2L7</t>
         </is>
       </c>
     </row>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>KQT8ND</t>
+          <t>E1PUFC</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>ORCNUW</t>
+          <t>HTG61U</t>
         </is>
       </c>
     </row>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>UOT50L</t>
+          <t>QW9V1A</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1UUUI3</t>
+          <t>KQOMVQ</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>LZJ116</t>
+          <t>2BLP5Z</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>NPF8HZ</t>
+          <t>9DWE67</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>LV9W4Q</t>
+          <t>GFTSNB</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>EODHYM</t>
+          <t>VKB06D</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>HXJ2TH</t>
+          <t>R9F4X2</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>TTH0AS</t>
+          <t>HLN6UA</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0EQ4B4</t>
+          <t>F1R47V</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>VZOWA7</t>
+          <t>5ZLA2X</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>CAIHGI</t>
+          <t>U0FL4C</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>P800QP</t>
+          <t>DYBS8K</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>93RZ77</t>
+          <t>FAMHR0</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0J3KGT</t>
+          <t>BYPLSJ</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ELYVEH</t>
+          <t>QVJADT</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>65W1YY</t>
+          <t>CES5FA</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>R8LAE9</t>
+          <t>IT5C3H</t>
         </is>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>3KQW4X</t>
+          <t>6IBW0T</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>VNRHV5</t>
+          <t>H6V1ZI</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>5AAGOF</t>
+          <t>6Y25OZ</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>MQT9AC</t>
+          <t>YA8J1E</t>
         </is>
       </c>
     </row>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>LVVCFX</t>
+          <t>7800Q6</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>U80DPV</t>
+          <t>4CBPKQ</t>
         </is>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>A8GHII</t>
+          <t>IUHK7J</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>A70BGA</t>
+          <t>4YYE50</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>L3MU9N</t>
+          <t>LI4YGV</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>X83N9W</t>
+          <t>GD4GO9</t>
         </is>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0RCBAA</t>
+          <t>5ODMX3</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>6VZQB9</t>
+          <t>MWIZU6</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>KOZWA5</t>
+          <t>IIABBO</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>N0BAAK</t>
+          <t>3OPR1W</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>R9E9X9</t>
+          <t>XIQJDV</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DZXTLW</t>
+          <t>Y75C13</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EY6HS0</t>
+          <t>OV1MES</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>TLDME7</t>
+          <t>GX3EE9</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>87J5VP</t>
+          <t>07NV4P</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>H6PYHF</t>
+          <t>BZ34GF</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>1Z2ZD7</t>
+          <t>3KWZ9H</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>5NGXV0</t>
+          <t>H00296</t>
         </is>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>E1893E</t>
+          <t>KLYTI0</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>OWF3C9</t>
+          <t>SR6HGI</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>P95QX9</t>
+          <t>U01NA1</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>4XSZL8</t>
+          <t>0ER724</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>NOS20A</t>
+          <t>NHBU23</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Z1EECF</t>
+          <t>TF59E7</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>BYMK6C</t>
+          <t>2XKVXW</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>OM1663</t>
+          <t>8TNSN6</t>
         </is>
       </c>
     </row>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>8PQJWR</t>
+          <t>75152S</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Z0K2FB</t>
+          <t>K85NKW</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>9DKBPX</t>
+          <t>EVRX8G</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>L6IG8T</t>
+          <t>1OJ57W</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>RADAHR</t>
+          <t>CEBLU3</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>PLRQXX</t>
+          <t>N5W7O5</t>
         </is>
       </c>
     </row>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>3N3GOO</t>
+          <t>KVSOIN</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>NVC98C</t>
+          <t>LI8LTE</t>
         </is>
       </c>
     </row>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0AKXXG</t>
+          <t>P2SFY0</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>V4BG66</t>
+          <t>B0KYKH</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>YFT47F</t>
+          <t>CLZJZ5</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>RLQ32K</t>
+          <t>GNU4BH</t>
         </is>
       </c>
     </row>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>EV5DQ5</t>
+          <t>22ZHWN</t>
         </is>
       </c>
     </row>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>OF9EYH</t>
+          <t>Y7MFKU</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>GPP6SA</t>
+          <t>IHL4ZZ</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>V7VX2L</t>
+          <t>UMB6E8</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>HG4BV9</t>
+          <t>N5WDN9</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>IX6X16</t>
+          <t>AKQMZW</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>6USTG7</t>
+          <t>0ECZLF</t>
         </is>
       </c>
     </row>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2NO1O4</t>
+          <t>KHGGCT</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>D9VVFZ</t>
+          <t>BMPWDL</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>HWDK3T</t>
+          <t>DPZ7WF</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>YDVLLK</t>
+          <t>ZP5XGD</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>F7KNB3</t>
+          <t>B40W0G</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>36E17Z</t>
+          <t>VN2HOA</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>LF88NB</t>
+          <t>TUYO2V</t>
         </is>
       </c>
     </row>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>D0W6WZ</t>
+          <t>H5CFU4</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>8ID41X</t>
+          <t>X6VCR1</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>3CTKMZ</t>
+          <t>GS09Q8</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>VDTRR7</t>
+          <t>OEZVIB</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>O7MRDU</t>
+          <t>DQTL9O</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>USSIJE</t>
+          <t>GGTD1T</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>U1FD61</t>
+          <t>IYELHH</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>THQ8XJ</t>
+          <t>XBRA8X</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>ZTC502</t>
+          <t>QT5M2O</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>S6U3GT</t>
+          <t>XANQI7</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>7O9QSU</t>
+          <t>U7056U</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>9AWKW8</t>
+          <t>V8618U</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>B5S2QM</t>
+          <t>P2V65D</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>K93IWL</t>
+          <t>6GUEA2</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>CSCW81</t>
+          <t>0B88S7</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>URNG42</t>
+          <t>RTIJIL</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>4HKRN8</t>
+          <t>EKMS2W</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>TNY539</t>
+          <t>PL2K28</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>K4S69F</t>
+          <t>QFVC4O</t>
         </is>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>9JDDRX</t>
+          <t>R67695</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>9T69KJ</t>
+          <t>40O4NI</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>X0HHK9</t>
+          <t>MCM6PM</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0TWIO5</t>
+          <t>NJ6AN7</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>S8NZLO</t>
+          <t>RVVUHP</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>LUI251</t>
+          <t>Y35EXO</t>
         </is>
       </c>
     </row>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>JPJEUN</t>
+          <t>1BWWF7</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>ULBMGD</t>
+          <t>6DY9PC</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>L3NH3T</t>
+          <t>RPNZVL</t>
         </is>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>KFZ97Z</t>
+          <t>C4452X</t>
         </is>
       </c>
     </row>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>026SH9</t>
+          <t>TG2W7L</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>KTL2SK</t>
+          <t>IUEYJP</t>
         </is>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>EO77HZ</t>
+          <t>5ORAL0</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>JPYS3R</t>
+          <t>674M9K</t>
         </is>
       </c>
     </row>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>KBLPEF</t>
+          <t>XL8I2W</t>
         </is>
       </c>
     </row>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>R3YFW5</t>
+          <t>U7NJGD</t>
         </is>
       </c>
     </row>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>97TID1</t>
+          <t>HCNNQ9</t>
         </is>
       </c>
     </row>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>H4DQB5</t>
+          <t>B75CWS</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>BL5V77</t>
+          <t>V8O9TU</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>R3S7QF</t>
+          <t>2BC1B8</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>7QSVLQ</t>
+          <t>HEFLHV</t>
         </is>
       </c>
     </row>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>9ZH3Y1</t>
+          <t>2ZFKK0</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>W5B9ZC</t>
+          <t>LDNAWP</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>3IRRJM</t>
+          <t>GSP7JA</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>P5P8I1</t>
+          <t>7Q7M3V</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>4USBFE</t>
+          <t>IARK1M</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>A2DUPF</t>
+          <t>U5YDQ6</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>LELX0X</t>
+          <t>E7JSYI</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>CXTYYJ</t>
+          <t>88HR3P</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>3NDVHF</t>
+          <t>YCGIM3</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>TSB6YO</t>
+          <t>1RA93U</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>EPMTIH</t>
+          <t>TLPKAJ</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>S6PTQ3</t>
+          <t>T597PE</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>GIKHE6</t>
+          <t>M2SZV8</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>W8EUY3</t>
+          <t>5URXPM</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>8T4YC0</t>
+          <t>RJPN3I</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>498TN4</t>
+          <t>O5O2U4</t>
         </is>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>LOW4IJ</t>
+          <t>I3DQWN</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>XDB866</t>
+          <t>VX9DK7</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>SEZ46I</t>
+          <t>AER7S7</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>ZUB95Q</t>
+          <t>RZK8H1</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Z6D5FP</t>
+          <t>ICQL8I</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>KQ2CRL</t>
+          <t>4PDK97</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>BSB8EF</t>
+          <t>JIK64E</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>9KZY0N</t>
+          <t>OSI3PM</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>8NG2AA</t>
+          <t>HHAVTZ</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>9Q04RO</t>
+          <t>HM2D89</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>6D3LH4</t>
+          <t>KE8NEZ</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>3QMPBJ</t>
+          <t>ZLE8QK</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>YZN528</t>
+          <t>5ODEMC</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>D1CALL</t>
+          <t>LUFHGR</t>
         </is>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>WGHZO4</t>
+          <t>2TQ61C</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>83W2RU</t>
+          <t>V7SI7Z</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>N9MQ5S</t>
+          <t>0WLECI</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>183T7G</t>
+          <t>JK5J06</t>
         </is>
       </c>
     </row>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0LG5PU</t>
+          <t>O6J05E</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>3JXP6R</t>
+          <t>OBCOC1</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>528DKN</t>
+          <t>3VTRMS</t>
         </is>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>M4JA96</t>
+          <t>OGAW6R</t>
         </is>
       </c>
     </row>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>TGQMHV</t>
+          <t>6SBLY4</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>4LS3I0</t>
+          <t>HWEBTK</t>
         </is>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>911IRZ</t>
+          <t>7G71KG</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>J37HWV</t>
+          <t>PZ41S0</t>
         </is>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>NNMUD9</t>
+          <t>ZJQ0SF</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>B86RNF</t>
+          <t>OS5IRD</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>N0NIEX</t>
+          <t>V8WKKA</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>09IW57</t>
+          <t>R9TSJX</t>
         </is>
       </c>
     </row>

--- a/Actual Coding/Ada_posts.xlsx
+++ b/Actual Coding/Ada_posts.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>YXFHYB</t>
+          <t>XXYFD0</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NYBBAT</t>
+          <t>6F14TY</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4LKZQN</t>
+          <t>JL644A</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A2ICY2</t>
+          <t>E3VCDG</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MUCR8U</t>
+          <t>9LFMZD</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5XO7NO</t>
+          <t>CU0P1Z</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AU3280</t>
+          <t>ZEA6NR</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>KPN2EI</t>
+          <t>UTZBXL</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>U3VD85</t>
+          <t>OWHTMM</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9292J9</t>
+          <t>VBPHBC</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7QKM9I</t>
+          <t>LK06NL</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>82KENO</t>
+          <t>YEA6J6</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>YY5ONV</t>
+          <t>9AT3BD</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BEW7AY</t>
+          <t>HVD3C3</t>
         </is>
       </c>
     </row>
@@ -702,7 +702,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3JODY3</t>
+          <t>GG61BT</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>WNEAFV</t>
+          <t>YY7SKL</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DHJEOW</t>
+          <t>UQWSH7</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>USRDYL</t>
+          <t>5EDP8A</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NVNK3L</t>
+          <t>Q18TFI</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>YGN9YK</t>
+          <t>L0D8PO</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>VLFE78</t>
+          <t>ZM0ZF4</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EG3BI5</t>
+          <t>QUG4BO</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>41HEXV</t>
+          <t>ACODRO</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8NERO7</t>
+          <t>P0C80Z</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>XPXW6S</t>
+          <t>W6O0OB</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SY6KUU</t>
+          <t>CEVBXN</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>W63RDB</t>
+          <t>CN7B6R</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>IQYLXR</t>
+          <t>KIL6I1</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RN6FPV</t>
+          <t>ODPTSN</t>
         </is>
       </c>
     </row>
@@ -958,7 +958,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AB8X2X</t>
+          <t>B8YTKJ</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>M7GZX2</t>
+          <t>81K0O5</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>B6FFOY</t>
+          <t>5VDUJ9</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>UTAEI9</t>
+          <t>772ZBI</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>YS1Z6V</t>
+          <t>MFPI7N</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ADUYJB</t>
+          <t>4QJMRQ</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ZEKMD7</t>
+          <t>YZS5J2</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>VKGBU5</t>
+          <t>U6DYQS</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>X0HA3P</t>
+          <t>KGPJ3E</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>D93Q7I</t>
+          <t>4QUO42</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>J3PQWO</t>
+          <t>7DI21D</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>KQNCW9</t>
+          <t>SS5L07</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>XW2W9G</t>
+          <t>J6I9NB</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MRLBZ9</t>
+          <t>4D5WND</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HGY3XA</t>
+          <t>TDWY3Y</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>OXAWGL</t>
+          <t>5XL16F</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>9NZ7VO</t>
+          <t>65OBMV</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>9A8TV7</t>
+          <t>ENVDOE</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>AC78FF</t>
+          <t>GU23A9</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BAXP9I</t>
+          <t>SHD6Z5</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>O4N9QV</t>
+          <t>QPS3CY</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>E8HQG4</t>
+          <t>T5AC1E</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>KTUAKH</t>
+          <t>XIKTS1</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>FIBULZ</t>
+          <t>EB0OXZ</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>C3J3M4</t>
+          <t>O0OADI</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>XE6SL9</t>
+          <t>6PS0FY</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CAIWJM</t>
+          <t>OQD6BN</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>RAXS2V</t>
+          <t>92YED2</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>BC3523</t>
+          <t>T79ICP</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3N0I5U</t>
+          <t>VW8IQ0</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ODRGEU</t>
+          <t>U767N3</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PR8HO4</t>
+          <t>8JJ9PB</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>YAU29F</t>
+          <t>7S8F6V</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>WCW415</t>
+          <t>1DBQQN</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>YZ4UR0</t>
+          <t>FP6CJ6</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>5WLB03</t>
+          <t>HSLJP4</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BJDY3A</t>
+          <t>JMBZBK</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1PG46N</t>
+          <t>6MR4FY</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>HX08UL</t>
+          <t>KA0T0P</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>T1QWA8</t>
+          <t>UCJVZI</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>KAZ1ZO</t>
+          <t>R7PR62</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>VJFPLK</t>
+          <t>QUBURC</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>OQ1QU8</t>
+          <t>9OL9VE</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>UPKO0S</t>
+          <t>HPPSI5</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>99OZI5</t>
+          <t>WNB18T</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>EFFO7G</t>
+          <t>9K7AGG</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ZYUSTQ</t>
+          <t>HWI6JW</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DPTXZN</t>
+          <t>KEJL0P</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>THSEL3</t>
+          <t>G47HJK</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Z86LC8</t>
+          <t>B13KKW</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>VHFILI</t>
+          <t>P085EL</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>7GA22Q</t>
+          <t>Z71SFQ</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>HMK1JT</t>
+          <t>90Z7SG</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DY8SEQ</t>
+          <t>T9BPL5</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0GAU2F</t>
+          <t>J5ABJ1</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>PUBDX3</t>
+          <t>AY7IQJ</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>8YHPDC</t>
+          <t>H0FKH2</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>KFGPNA</t>
+          <t>3CRVEN</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MJ7HIN</t>
+          <t>TRHJ3U</t>
         </is>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>HA7Y9S</t>
+          <t>U1UFAV</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>OFFOOF</t>
+          <t>6KTWGQ</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>RFSY6C</t>
+          <t>336EWK</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0YGYMW</t>
+          <t>TFQGZO</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Q1WQTB</t>
+          <t>ZCNZVD</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3LOEFE</t>
+          <t>UMH5V9</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>S8L7W0</t>
+          <t>ACQ93Y</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>7GU6KL</t>
+          <t>XC3ZOO</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>BF84DV</t>
+          <t>RW7H7K</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>IS0PWL</t>
+          <t>5LWKB3</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>9EEK87</t>
+          <t>0TWB2I</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>QOYLCD</t>
+          <t>XSYVAZ</t>
         </is>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>LLEYU7</t>
+          <t>UGXA84</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>VAWGWM</t>
+          <t>S6BMWE</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1EQAOY</t>
+          <t>94ISOW</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>NPK0EE</t>
+          <t>CFU9V2</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>FF8G6V</t>
+          <t>9UHFX9</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>X7FXY2</t>
+          <t>E3IXT4</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1DYDUW</t>
+          <t>9E6LOC</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>D480Z0</t>
+          <t>DTG64A</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SYEY2N</t>
+          <t>AGRP3H</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>6HJQKN</t>
+          <t>VTGCUR</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>JSMPSV</t>
+          <t>OTCUNI</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>YIJ0D7</t>
+          <t>JSUWIS</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>C0MTLL</t>
+          <t>68APJ3</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CPBH3B</t>
+          <t>KIB27C</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>P52O7L</t>
+          <t>FHTW6B</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2YF3JD</t>
+          <t>LH5M53</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DX7YNX</t>
+          <t>2K4AUW</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>F5QSQP</t>
+          <t>IIHW7A</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>OQ61EN</t>
+          <t>2XFMS3</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>5EKT63</t>
+          <t>YFP3TH</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4FH7TK</t>
+          <t>WKKFVQ</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>LZ3PD1</t>
+          <t>KAQAHK</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>L9J1CJ</t>
+          <t>P4WW64</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HFJWZT</t>
+          <t>7F4FZE</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>7BNP5W</t>
+          <t>620G89</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>I60L1P</t>
+          <t>669DRH</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>YFB4OM</t>
+          <t>LFJ3NY</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>6CCNCU</t>
+          <t>4RH691</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>DAL6CP</t>
+          <t>L4BVJ3</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2EXZBD</t>
+          <t>7Y0HZD</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>8FEY74</t>
+          <t>L43QYB</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>QZVFDR</t>
+          <t>5TOZVL</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>FV1RQ1</t>
+          <t>TB010Z</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>IBHNG0</t>
+          <t>WPMH75</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>41BF8H</t>
+          <t>1YTL08</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>7TB8OY</t>
+          <t>NM0M5A</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>CAJ5K7</t>
+          <t>IJKGX6</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>VTEFMR</t>
+          <t>DVDZ2B</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>7NP2L7</t>
+          <t>ILU00U</t>
         </is>
       </c>
     </row>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>E1PUFC</t>
+          <t>JYGL3H</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>HTG61U</t>
+          <t>7QLKO5</t>
         </is>
       </c>
     </row>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>QW9V1A</t>
+          <t>NS8J0U</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>KQOMVQ</t>
+          <t>M48VDH</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2BLP5Z</t>
+          <t>QQXKT2</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>9DWE67</t>
+          <t>6PTZFR</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>GFTSNB</t>
+          <t>F1B0JA</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>VKB06D</t>
+          <t>IF0SB0</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>R9F4X2</t>
+          <t>I7OP47</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HLN6UA</t>
+          <t>GINMFP</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>F1R47V</t>
+          <t>4RN3GB</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>5ZLA2X</t>
+          <t>6STO3K</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>U0FL4C</t>
+          <t>OU6OTJ</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DYBS8K</t>
+          <t>EPEMNJ</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>FAMHR0</t>
+          <t>1OQ2JH</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>BYPLSJ</t>
+          <t>Z72W7X</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>QVJADT</t>
+          <t>2GSIA2</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>CES5FA</t>
+          <t>09RHHI</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>IT5C3H</t>
+          <t>02Z5PU</t>
         </is>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>6IBW0T</t>
+          <t>395H8G</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>H6V1ZI</t>
+          <t>I5WHZM</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>6Y25OZ</t>
+          <t>3TRZTR</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>YA8J1E</t>
+          <t>VM8IQO</t>
         </is>
       </c>
     </row>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>7800Q6</t>
+          <t>0DNO1F</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>4CBPKQ</t>
+          <t>G065O0</t>
         </is>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>IUHK7J</t>
+          <t>62FCZF</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>4YYE50</t>
+          <t>973E9M</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>LI4YGV</t>
+          <t>ZT1QWX</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>GD4GO9</t>
+          <t>1X93T8</t>
         </is>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>5ODMX3</t>
+          <t>7D1Q4S</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>MWIZU6</t>
+          <t>5FSDFP</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>IIABBO</t>
+          <t>YXYWOB</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>3OPR1W</t>
+          <t>0DXHTL</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>XIQJDV</t>
+          <t>FHM1TJ</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Y75C13</t>
+          <t>Y8KDO0</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>OV1MES</t>
+          <t>M43UFA</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>GX3EE9</t>
+          <t>1CVMK4</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>07NV4P</t>
+          <t>EQ2FOF</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>BZ34GF</t>
+          <t>QG3LFG</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>3KWZ9H</t>
+          <t>FO7XF6</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>H00296</t>
+          <t>O34Y5K</t>
         </is>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>KLYTI0</t>
+          <t>14SWQG</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SR6HGI</t>
+          <t>K5TS1K</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>U01NA1</t>
+          <t>JXU8GI</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0ER724</t>
+          <t>ID4DZY</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>NHBU23</t>
+          <t>Q6U1R8</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>TF59E7</t>
+          <t>638CSZ</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2XKVXW</t>
+          <t>TVZK1F</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>8TNSN6</t>
+          <t>C2J5Z9</t>
         </is>
       </c>
     </row>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>75152S</t>
+          <t>2PU0CU</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>K85NKW</t>
+          <t>VZAL5C</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>EVRX8G</t>
+          <t>J7A1ZN</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>1OJ57W</t>
+          <t>2XZ4IF</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>CEBLU3</t>
+          <t>HO2E56</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>N5W7O5</t>
+          <t>DETWXY</t>
         </is>
       </c>
     </row>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>KVSOIN</t>
+          <t>RJFUA0</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>LI8LTE</t>
+          <t>3Y53G8</t>
         </is>
       </c>
     </row>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>P2SFY0</t>
+          <t>7TH7CR</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>B0KYKH</t>
+          <t>LR4I9Q</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>CLZJZ5</t>
+          <t>VN9SFI</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>GNU4BH</t>
+          <t>MTHEPR</t>
         </is>
       </c>
     </row>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>22ZHWN</t>
+          <t>8TH3HN</t>
         </is>
       </c>
     </row>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Y7MFKU</t>
+          <t>P6X0OL</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>IHL4ZZ</t>
+          <t>J99Q0J</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>UMB6E8</t>
+          <t>KXMB08</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>N5WDN9</t>
+          <t>PPVLEY</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>AKQMZW</t>
+          <t>OG0JGR</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0ECZLF</t>
+          <t>ZQJTKB</t>
         </is>
       </c>
     </row>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>KHGGCT</t>
+          <t>7IMZ6Z</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>BMPWDL</t>
+          <t>M82IDG</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>DPZ7WF</t>
+          <t>DQSKRI</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>ZP5XGD</t>
+          <t>DRJZV9</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>B40W0G</t>
+          <t>8FH26S</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>VN2HOA</t>
+          <t>0TN506</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>TUYO2V</t>
+          <t>6SPD6E</t>
         </is>
       </c>
     </row>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>H5CFU4</t>
+          <t>559RK8</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>X6VCR1</t>
+          <t>LT4BD0</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>GS09Q8</t>
+          <t>13CXMH</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>OEZVIB</t>
+          <t>ATBHVI</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>DQTL9O</t>
+          <t>NY6OC3</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>GGTD1T</t>
+          <t>HBWLMQ</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>IYELHH</t>
+          <t>WSAV8M</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>XBRA8X</t>
+          <t>KW6XA0</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>QT5M2O</t>
+          <t>B6L8IT</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>XANQI7</t>
+          <t>5KRJME</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>U7056U</t>
+          <t>ZHUKS1</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>V8618U</t>
+          <t>OID6AW</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>P2V65D</t>
+          <t>HY6N35</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>6GUEA2</t>
+          <t>Z66QNG</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0B88S7</t>
+          <t>8MQOVZ</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>RTIJIL</t>
+          <t>A3VLD7</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>EKMS2W</t>
+          <t>WVNFRF</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>PL2K28</t>
+          <t>6F5O4Q</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>QFVC4O</t>
+          <t>4ZRJYA</t>
         </is>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>R67695</t>
+          <t>RACQT1</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>40O4NI</t>
+          <t>WAEFUE</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>MCM6PM</t>
+          <t>GX5AI1</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>NJ6AN7</t>
+          <t>9T3CZA</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>RVVUHP</t>
+          <t>53O5DI</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Y35EXO</t>
+          <t>8BLSNO</t>
         </is>
       </c>
     </row>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1BWWF7</t>
+          <t>HN26SB</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>6DY9PC</t>
+          <t>36NKLO</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>RPNZVL</t>
+          <t>58THTY</t>
         </is>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>C4452X</t>
+          <t>3MGBMU</t>
         </is>
       </c>
     </row>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>TG2W7L</t>
+          <t>YWGM2J</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>IUEYJP</t>
+          <t>LFEXHC</t>
         </is>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>5ORAL0</t>
+          <t>FKNUSH</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>674M9K</t>
+          <t>D7GI4V</t>
         </is>
       </c>
     </row>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>XL8I2W</t>
+          <t>SIPMIX</t>
         </is>
       </c>
     </row>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>U7NJGD</t>
+          <t>BIG3AN</t>
         </is>
       </c>
     </row>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>HCNNQ9</t>
+          <t>4U2PKL</t>
         </is>
       </c>
     </row>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>B75CWS</t>
+          <t>HZM0EQ</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>V8O9TU</t>
+          <t>ND7GC1</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2BC1B8</t>
+          <t>2G9PEP</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>HEFLHV</t>
+          <t>E1YN0S</t>
         </is>
       </c>
     </row>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>2ZFKK0</t>
+          <t>GMTO1S</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>LDNAWP</t>
+          <t>0E6UFO</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>GSP7JA</t>
+          <t>PDGITZ</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>7Q7M3V</t>
+          <t>DQGMPE</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>IARK1M</t>
+          <t>TRF6II</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>U5YDQ6</t>
+          <t>UVCEEE</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>E7JSYI</t>
+          <t>8LTVT7</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>88HR3P</t>
+          <t>R88XXH</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>YCGIM3</t>
+          <t>35MIUX</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>1RA93U</t>
+          <t>9MMUD1</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>TLPKAJ</t>
+          <t>VX8HIC</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>T597PE</t>
+          <t>R3PJU8</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>M2SZV8</t>
+          <t>65KRRR</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>5URXPM</t>
+          <t>8NXWGB</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>RJPN3I</t>
+          <t>9S1YVJ</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>O5O2U4</t>
+          <t>4AIR62</t>
         </is>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>I3DQWN</t>
+          <t>0UV5FT</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>VX9DK7</t>
+          <t>242NXK</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>AER7S7</t>
+          <t>0C86Z0</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>RZK8H1</t>
+          <t>QRV5A0</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>ICQL8I</t>
+          <t>2C6GP4</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>4PDK97</t>
+          <t>7IXY2P</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>JIK64E</t>
+          <t>OATW2R</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>OSI3PM</t>
+          <t>B3HWLW</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>HHAVTZ</t>
+          <t>4HXVIY</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>HM2D89</t>
+          <t>Y9B65A</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>KE8NEZ</t>
+          <t>W7FT28</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>ZLE8QK</t>
+          <t>SCY7SV</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>5ODEMC</t>
+          <t>J7DW74</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>LUFHGR</t>
+          <t>G0ORUM</t>
         </is>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>2TQ61C</t>
+          <t>R5IP4C</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>V7SI7Z</t>
+          <t>K0UZKA</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0WLECI</t>
+          <t>BTBLRO</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>JK5J06</t>
+          <t>92NEI0</t>
         </is>
       </c>
     </row>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>O6J05E</t>
+          <t>60JO0J</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>OBCOC1</t>
+          <t>5LA641</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>3VTRMS</t>
+          <t>D7KPS5</t>
         </is>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>OGAW6R</t>
+          <t>HAF8DG</t>
         </is>
       </c>
     </row>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>6SBLY4</t>
+          <t>PCOHMN</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>HWEBTK</t>
+          <t>RQ4M2T</t>
         </is>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>7G71KG</t>
+          <t>UW2XEJ</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>PZ41S0</t>
+          <t>OXUC8I</t>
         </is>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>ZJQ0SF</t>
+          <t>ZZ6HLL</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>OS5IRD</t>
+          <t>YJ668I</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>V8WKKA</t>
+          <t>SL6OY7</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>R9TSJX</t>
+          <t>DLSTGT</t>
         </is>
       </c>
     </row>

--- a/Actual Coding/Ada_posts.xlsx
+++ b/Actual Coding/Ada_posts.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>XXYFD0</t>
+          <t>V2SIYM</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6F14TY</t>
+          <t>YDON2D</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JL644A</t>
+          <t>B8VF7J</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>E3VCDG</t>
+          <t>YNYZGW</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9LFMZD</t>
+          <t>KMYW10</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CU0P1Z</t>
+          <t>47RJYI</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ZEA6NR</t>
+          <t>OUU5TA</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UTZBXL</t>
+          <t>7D98T2</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>OWHTMM</t>
+          <t>Z9FH7J</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>VBPHBC</t>
+          <t>85UXX7</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LK06NL</t>
+          <t>PO6L6L</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>YEA6J6</t>
+          <t>O2BH8Q</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9AT3BD</t>
+          <t>1DZQG7</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HVD3C3</t>
+          <t>6YZR3E</t>
         </is>
       </c>
     </row>
@@ -702,7 +702,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GG61BT</t>
+          <t>8TT2M6</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>YY7SKL</t>
+          <t>SQJ6Y5</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>UQWSH7</t>
+          <t>ZME73J</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5EDP8A</t>
+          <t>DGCMHY</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q18TFI</t>
+          <t>KS43QA</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>L0D8PO</t>
+          <t>W7J4Z8</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ZM0ZF4</t>
+          <t>5OB5TC</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>QUG4BO</t>
+          <t>8GFIC6</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ACODRO</t>
+          <t>T7PSGJ</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>P0C80Z</t>
+          <t>A08R0K</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>W6O0OB</t>
+          <t>ZA053L</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CEVBXN</t>
+          <t>VEU9YI</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CN7B6R</t>
+          <t>JGIN1T</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>KIL6I1</t>
+          <t>95IJIO</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ODPTSN</t>
+          <t>VWBAML</t>
         </is>
       </c>
     </row>
@@ -958,7 +958,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>B8YTKJ</t>
+          <t>TMELRG</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>81K0O5</t>
+          <t>9TPW5L</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5VDUJ9</t>
+          <t>H3AUHZ</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>772ZBI</t>
+          <t>DZMLZH</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MFPI7N</t>
+          <t>74B33X</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4QJMRQ</t>
+          <t>UB8R1V</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>YZS5J2</t>
+          <t>ZI7M7I</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>U6DYQS</t>
+          <t>5SESAG</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>KGPJ3E</t>
+          <t>AP5K0A</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4QUO42</t>
+          <t>LDOC0S</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>7DI21D</t>
+          <t>8ODWUE</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SS5L07</t>
+          <t>PBGCV4</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>J6I9NB</t>
+          <t>9UV9G6</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4D5WND</t>
+          <t>Z3IC2O</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TDWY3Y</t>
+          <t>1349BF</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5XL16F</t>
+          <t>202I88</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>65OBMV</t>
+          <t>BUZPP8</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ENVDOE</t>
+          <t>PY3WD6</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GU23A9</t>
+          <t>VK8JB6</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SHD6Z5</t>
+          <t>N98VU9</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>QPS3CY</t>
+          <t>BA8F6R</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>T5AC1E</t>
+          <t>G68FH4</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>XIKTS1</t>
+          <t>LH1I3M</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>EB0OXZ</t>
+          <t>QRWAS5</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>O0OADI</t>
+          <t>V11BAW</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>6PS0FY</t>
+          <t>7AENNA</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>OQD6BN</t>
+          <t>6DDJ5A</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>92YED2</t>
+          <t>4XUJW9</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>T79ICP</t>
+          <t>N4PZ90</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>VW8IQ0</t>
+          <t>82P7IC</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>U767N3</t>
+          <t>YFK8VJ</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>8JJ9PB</t>
+          <t>BR2COR</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>7S8F6V</t>
+          <t>J5CY3S</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1DBQQN</t>
+          <t>TIBSHQ</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>FP6CJ6</t>
+          <t>L9QCRR</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>HSLJP4</t>
+          <t>XKTM10</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>JMBZBK</t>
+          <t>G6ZKJ5</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>6MR4FY</t>
+          <t>4UVH9P</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>KA0T0P</t>
+          <t>QYACE6</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>UCJVZI</t>
+          <t>GPRAPA</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>R7PR62</t>
+          <t>C1IF3D</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>QUBURC</t>
+          <t>RAOS73</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>9OL9VE</t>
+          <t>I3M6IN</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HPPSI5</t>
+          <t>3TW1CK</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>WNB18T</t>
+          <t>3E1O36</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>9K7AGG</t>
+          <t>YKE12R</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>HWI6JW</t>
+          <t>8T8ZSQ</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>KEJL0P</t>
+          <t>OOR9IX</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>G47HJK</t>
+          <t>ONPMJ1</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>B13KKW</t>
+          <t>UU4I14</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>P085EL</t>
+          <t>VHOO6Y</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Z71SFQ</t>
+          <t>4HV1C6</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>90Z7SG</t>
+          <t>LF5XAW</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>T9BPL5</t>
+          <t>MPY12K</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>J5ABJ1</t>
+          <t>V4WW71</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>AY7IQJ</t>
+          <t>1LFXPA</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>H0FKH2</t>
+          <t>OVVYRM</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3CRVEN</t>
+          <t>KQ09D2</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TRHJ3U</t>
+          <t>CWWEX9</t>
         </is>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>U1UFAV</t>
+          <t>KFOI10</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>6KTWGQ</t>
+          <t>RVUKEL</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>336EWK</t>
+          <t>LBNNZU</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TFQGZO</t>
+          <t>QXIFKH</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ZCNZVD</t>
+          <t>5GVNQV</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>UMH5V9</t>
+          <t>2YF8S4</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ACQ93Y</t>
+          <t>OXKJB5</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>XC3ZOO</t>
+          <t>FCU1JU</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>RW7H7K</t>
+          <t>K73PMX</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>5LWKB3</t>
+          <t>GH6F8D</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0TWB2I</t>
+          <t>V6GT6J</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>XSYVAZ</t>
+          <t>FPKVT0</t>
         </is>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>UGXA84</t>
+          <t>OUX1NL</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>S6BMWE</t>
+          <t>1ZG72K</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>94ISOW</t>
+          <t>DCXHSR</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CFU9V2</t>
+          <t>V1QEZ4</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>9UHFX9</t>
+          <t>XNR0M2</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>E3IXT4</t>
+          <t>SG55FM</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>9E6LOC</t>
+          <t>J6NXTG</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>DTG64A</t>
+          <t>OV0G43</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>AGRP3H</t>
+          <t>6ITGYR</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>VTGCUR</t>
+          <t>0VLFQU</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>OTCUNI</t>
+          <t>30YB0C</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>JSUWIS</t>
+          <t>A0DJJB</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>68APJ3</t>
+          <t>654ITO</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>KIB27C</t>
+          <t>ZTTOUA</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>FHTW6B</t>
+          <t>62EWYK</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>LH5M53</t>
+          <t>G11QIA</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2K4AUW</t>
+          <t>GFLQVK</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>IIHW7A</t>
+          <t>TRB2TZ</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2XFMS3</t>
+          <t>9QHZCN</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>YFP3TH</t>
+          <t>SUVVWB</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>WKKFVQ</t>
+          <t>1T9ZOM</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>KAQAHK</t>
+          <t>KN2BKX</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>P4WW64</t>
+          <t>4A8FE1</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>7F4FZE</t>
+          <t>XUDTSD</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>620G89</t>
+          <t>U34TXU</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>669DRH</t>
+          <t>HQODVK</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>LFJ3NY</t>
+          <t>CPEEDJ</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>4RH691</t>
+          <t>9OXD1B</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>L4BVJ3</t>
+          <t>6PHTLY</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>7Y0HZD</t>
+          <t>2CBWKO</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>L43QYB</t>
+          <t>0RUIS6</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>5TOZVL</t>
+          <t>U40B4E</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>TB010Z</t>
+          <t>KVSCCF</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>WPMH75</t>
+          <t>16OTRE</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1YTL08</t>
+          <t>SWOQLT</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>NM0M5A</t>
+          <t>5TS8UX</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>IJKGX6</t>
+          <t>P0DL4J</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>DVDZ2B</t>
+          <t>KQ9MSZ</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ILU00U</t>
+          <t>BJTUQE</t>
         </is>
       </c>
     </row>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>JYGL3H</t>
+          <t>T0RS9J</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>7QLKO5</t>
+          <t>URXLGI</t>
         </is>
       </c>
     </row>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>NS8J0U</t>
+          <t>ZMK304</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>M48VDH</t>
+          <t>253MZ0</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>QQXKT2</t>
+          <t>38KD5M</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>6PTZFR</t>
+          <t>0F6C6R</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>F1B0JA</t>
+          <t>XKIZLT</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>IF0SB0</t>
+          <t>JRISRP</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>I7OP47</t>
+          <t>3KGD07</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>GINMFP</t>
+          <t>WGTFR3</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>4RN3GB</t>
+          <t>GEAU20</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>6STO3K</t>
+          <t>GALOTC</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>OU6OTJ</t>
+          <t>828WBB</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>EPEMNJ</t>
+          <t>4XDRH5</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1OQ2JH</t>
+          <t>CDGWXM</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Z72W7X</t>
+          <t>2MJC3N</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2GSIA2</t>
+          <t>V6CDL3</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>09RHHI</t>
+          <t>BKDVLO</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>02Z5PU</t>
+          <t>DQATYN</t>
         </is>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>395H8G</t>
+          <t>DDEOCW</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>I5WHZM</t>
+          <t>QKYHN4</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>3TRZTR</t>
+          <t>8IWIJY</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>VM8IQO</t>
+          <t>C0V9SM</t>
         </is>
       </c>
     </row>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0DNO1F</t>
+          <t>8Z085U</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>G065O0</t>
+          <t>891OGR</t>
         </is>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>62FCZF</t>
+          <t>TX5BC1</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>973E9M</t>
+          <t>1S3RJT</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>ZT1QWX</t>
+          <t>ZEUWY8</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1X93T8</t>
+          <t>5P31VA</t>
         </is>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>7D1Q4S</t>
+          <t>6MRQOB</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>5FSDFP</t>
+          <t>PDGEW1</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>YXYWOB</t>
+          <t>AX87EH</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0DXHTL</t>
+          <t>M8T4JE</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>FHM1TJ</t>
+          <t>9IEGJL</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Y8KDO0</t>
+          <t>842L6S</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>M43UFA</t>
+          <t>7AKJDL</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1CVMK4</t>
+          <t>SHSNKX</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>EQ2FOF</t>
+          <t>5DUVET</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>QG3LFG</t>
+          <t>XNZM73</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>FO7XF6</t>
+          <t>L4U746</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>O34Y5K</t>
+          <t>S9NKHT</t>
         </is>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>14SWQG</t>
+          <t>MC6L0Y</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>K5TS1K</t>
+          <t>UOYTYP</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>JXU8GI</t>
+          <t>0MU8QB</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ID4DZY</t>
+          <t>IAHQY8</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Q6U1R8</t>
+          <t>S4R1X4</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>638CSZ</t>
+          <t>PNPMS6</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>TVZK1F</t>
+          <t>N0TG51</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>C2J5Z9</t>
+          <t>PW9K1K</t>
         </is>
       </c>
     </row>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2PU0CU</t>
+          <t>A8VWSF</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>VZAL5C</t>
+          <t>SNI0R5</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>J7A1ZN</t>
+          <t>I9SD3T</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2XZ4IF</t>
+          <t>VQRDS9</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HO2E56</t>
+          <t>4RR02K</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>DETWXY</t>
+          <t>3V1U7A</t>
         </is>
       </c>
     </row>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>RJFUA0</t>
+          <t>17D89E</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>3Y53G8</t>
+          <t>CT6JVR</t>
         </is>
       </c>
     </row>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>7TH7CR</t>
+          <t>T5S5AP</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>LR4I9Q</t>
+          <t>CLZ01S</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>VN9SFI</t>
+          <t>18B1CZ</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>MTHEPR</t>
+          <t>Q7TNU3</t>
         </is>
       </c>
     </row>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>8TH3HN</t>
+          <t>QAKDIH</t>
         </is>
       </c>
     </row>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>P6X0OL</t>
+          <t>72R7B3</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>J99Q0J</t>
+          <t>CXEPKF</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>KXMB08</t>
+          <t>BDHR4X</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>PPVLEY</t>
+          <t>30KRMI</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>OG0JGR</t>
+          <t>EH0YXK</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ZQJTKB</t>
+          <t>MV42WS</t>
         </is>
       </c>
     </row>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>7IMZ6Z</t>
+          <t>5EMVPO</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>M82IDG</t>
+          <t>SI59FF</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>DQSKRI</t>
+          <t>IYCW58</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>DRJZV9</t>
+          <t>C4LRDD</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>8FH26S</t>
+          <t>963T8L</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0TN506</t>
+          <t>1HAPHM</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>6SPD6E</t>
+          <t>GOJ6MZ</t>
         </is>
       </c>
     </row>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>559RK8</t>
+          <t>V99RZZ</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>LT4BD0</t>
+          <t>431Y97</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>13CXMH</t>
+          <t>TZGL3D</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>ATBHVI</t>
+          <t>V7VXSM</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>NY6OC3</t>
+          <t>AMDHW9</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>HBWLMQ</t>
+          <t>MN3Z7Z</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>WSAV8M</t>
+          <t>UVWFD5</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>KW6XA0</t>
+          <t>2BP2NC</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>B6L8IT</t>
+          <t>8TQR50</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>5KRJME</t>
+          <t>6JFJH0</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>ZHUKS1</t>
+          <t>54JK4L</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>OID6AW</t>
+          <t>7L7IMR</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>HY6N35</t>
+          <t>05DZUW</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Z66QNG</t>
+          <t>AMTBVS</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>8MQOVZ</t>
+          <t>SB8X9F</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>A3VLD7</t>
+          <t>2FZMZ0</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>WVNFRF</t>
+          <t>KZED1G</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>6F5O4Q</t>
+          <t>ROU6GY</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>4ZRJYA</t>
+          <t>ZQZAZL</t>
         </is>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>RACQT1</t>
+          <t>I2U077</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>WAEFUE</t>
+          <t>5D2G33</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>GX5AI1</t>
+          <t>335NN6</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>9T3CZA</t>
+          <t>T2I6FY</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>53O5DI</t>
+          <t>2NX9F0</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>8BLSNO</t>
+          <t>8543SM</t>
         </is>
       </c>
     </row>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>HN26SB</t>
+          <t>85VRGR</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>36NKLO</t>
+          <t>MI1WAV</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>58THTY</t>
+          <t>WTWXXS</t>
         </is>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>3MGBMU</t>
+          <t>3AYTSR</t>
         </is>
       </c>
     </row>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>YWGM2J</t>
+          <t>3R8T89</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>LFEXHC</t>
+          <t>M3736T</t>
         </is>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>FKNUSH</t>
+          <t>7DSMMD</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>D7GI4V</t>
+          <t>9S9WER</t>
         </is>
       </c>
     </row>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>SIPMIX</t>
+          <t>0PF97T</t>
         </is>
       </c>
     </row>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>BIG3AN</t>
+          <t>8AU360</t>
         </is>
       </c>
     </row>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>4U2PKL</t>
+          <t>9AGKJT</t>
         </is>
       </c>
     </row>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>HZM0EQ</t>
+          <t>QHIOGP</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>ND7GC1</t>
+          <t>N4CBQX</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2G9PEP</t>
+          <t>ZSJ0TS</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>E1YN0S</t>
+          <t>IMEBQY</t>
         </is>
       </c>
     </row>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>GMTO1S</t>
+          <t>1CRBIL</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0E6UFO</t>
+          <t>J0H2YV</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>PDGITZ</t>
+          <t>P6CVLC</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>DQGMPE</t>
+          <t>5AHBMR</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>TRF6II</t>
+          <t>VTW8Y5</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>UVCEEE</t>
+          <t>ESM3ZA</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>8LTVT7</t>
+          <t>ZCC9JD</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>R88XXH</t>
+          <t>JY1QE5</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>35MIUX</t>
+          <t>OW83IC</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>9MMUD1</t>
+          <t>RHADJS</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>VX8HIC</t>
+          <t>434BKE</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>R3PJU8</t>
+          <t>0OEUTL</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>65KRRR</t>
+          <t>CAO73Z</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>8NXWGB</t>
+          <t>X53BCZ</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>9S1YVJ</t>
+          <t>71Z9O1</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>4AIR62</t>
+          <t>8GGCJG</t>
         </is>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>0UV5FT</t>
+          <t>35RM7J</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>242NXK</t>
+          <t>H3N5BL</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>0C86Z0</t>
+          <t>WIZI3Z</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>QRV5A0</t>
+          <t>NQZXHO</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>2C6GP4</t>
+          <t>YPVAKB</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>7IXY2P</t>
+          <t>BVAMHY</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>OATW2R</t>
+          <t>HIUT6L</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>B3HWLW</t>
+          <t>18X8X2</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>4HXVIY</t>
+          <t>0S1PX9</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Y9B65A</t>
+          <t>6F60P7</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>W7FT28</t>
+          <t>8HIGI5</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>SCY7SV</t>
+          <t>ALEKW6</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>J7DW74</t>
+          <t>7XTP4P</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>G0ORUM</t>
+          <t>2RFCFU</t>
         </is>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>R5IP4C</t>
+          <t>FRZRXC</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>K0UZKA</t>
+          <t>K350O5</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>BTBLRO</t>
+          <t>HI10HI</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>92NEI0</t>
+          <t>ODQLLZ</t>
         </is>
       </c>
     </row>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>60JO0J</t>
+          <t>B47UAD</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>5LA641</t>
+          <t>5XGSR2</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>D7KPS5</t>
+          <t>OMQ3W0</t>
         </is>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>HAF8DG</t>
+          <t>LFT9V6</t>
         </is>
       </c>
     </row>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>PCOHMN</t>
+          <t>KP2T7R</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>RQ4M2T</t>
+          <t>2EIZKU</t>
         </is>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>UW2XEJ</t>
+          <t>JPX7QS</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>OXUC8I</t>
+          <t>R4J1YU</t>
         </is>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>ZZ6HLL</t>
+          <t>7QMI6V</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>YJ668I</t>
+          <t>4N6FWK</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>SL6OY7</t>
+          <t>IP5H2H</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>DLSTGT</t>
+          <t>FAQJ1E</t>
         </is>
       </c>
     </row>

--- a/Actual Coding/Ada_posts.xlsx
+++ b/Actual Coding/Ada_posts.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>V2SIYM</t>
+          <t>1YJN3Y</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>YDON2D</t>
+          <t>LTJ9WB</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B8VF7J</t>
+          <t>5MVF1F</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>YNYZGW</t>
+          <t>4JCPTW</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>KMYW10</t>
+          <t>UI3RV7</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>47RJYI</t>
+          <t>0XWTGA</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>OUU5TA</t>
+          <t>LWL10Q</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7D98T2</t>
+          <t>KDA4U4</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Z9FH7J</t>
+          <t>EWCP4O</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>85UXX7</t>
+          <t>WKUKHB</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PO6L6L</t>
+          <t>Y4N1E8</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>O2BH8Q</t>
+          <t>E3Y5RQ</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1DZQG7</t>
+          <t>EPNMPM</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6YZR3E</t>
+          <t>KS245W</t>
         </is>
       </c>
     </row>
@@ -702,7 +702,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8TT2M6</t>
+          <t>6FYML2</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SQJ6Y5</t>
+          <t>3YBOVA</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ZME73J</t>
+          <t>0XYLNP</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DGCMHY</t>
+          <t>DBE8K8</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>KS43QA</t>
+          <t>K0A97L</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>W7J4Z8</t>
+          <t>F7XWSV</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5OB5TC</t>
+          <t>3TDHI5</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>8GFIC6</t>
+          <t>RMVQSW</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>T7PSGJ</t>
+          <t>PES7RV</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A08R0K</t>
+          <t>JCHARQ</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ZA053L</t>
+          <t>UXS4W5</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>VEU9YI</t>
+          <t>OAS3MJ</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>JGIN1T</t>
+          <t>2WJT2X</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>95IJIO</t>
+          <t>OXW38H</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>VWBAML</t>
+          <t>Q5FIVR</t>
         </is>
       </c>
     </row>
@@ -958,7 +958,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TMELRG</t>
+          <t>6YDLES</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9TPW5L</t>
+          <t>66MKOY</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>H3AUHZ</t>
+          <t>O8FBAT</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DZMLZH</t>
+          <t>L62FBP</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>74B33X</t>
+          <t>RP66N9</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>UB8R1V</t>
+          <t>7V5PDY</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ZI7M7I</t>
+          <t>POA01X</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5SESAG</t>
+          <t>1B5BW2</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AP5K0A</t>
+          <t>5SDRIA</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LDOC0S</t>
+          <t>RMPZRA</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>8ODWUE</t>
+          <t>MCTGFQ</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PBGCV4</t>
+          <t>7IBIX2</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>9UV9G6</t>
+          <t>N4J4TP</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Z3IC2O</t>
+          <t>47Q26T</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1349BF</t>
+          <t>XYSWI4</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>202I88</t>
+          <t>O2MKRN</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BUZPP8</t>
+          <t>W3BMDO</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PY3WD6</t>
+          <t>8KOLSH</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>VK8JB6</t>
+          <t>N050DL</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>N98VU9</t>
+          <t>QBCSTW</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BA8F6R</t>
+          <t>F8GXDZ</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>G68FH4</t>
+          <t>2IRA85</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LH1I3M</t>
+          <t>G703YL</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>QRWAS5</t>
+          <t>71U1NC</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>V11BAW</t>
+          <t>1LVFY6</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>7AENNA</t>
+          <t>YXURDK</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>6DDJ5A</t>
+          <t>ZG3WI4</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4XUJW9</t>
+          <t>1AKX7H</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>N4PZ90</t>
+          <t>RWCPHG</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>82P7IC</t>
+          <t>5DNRVT</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>YFK8VJ</t>
+          <t>6ENSC9</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>BR2COR</t>
+          <t>R5JTTZ</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>J5CY3S</t>
+          <t>5ZLZDS</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>TIBSHQ</t>
+          <t>S6VSFX</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>L9QCRR</t>
+          <t>C920YQ</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>XKTM10</t>
+          <t>X7Q3GH</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>G6ZKJ5</t>
+          <t>BVZW91</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4UVH9P</t>
+          <t>QCE39J</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>QYACE6</t>
+          <t>SBKNKM</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GPRAPA</t>
+          <t>4CX9N2</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>C1IF3D</t>
+          <t>43X6TB</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>RAOS73</t>
+          <t>Q597U6</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>I3M6IN</t>
+          <t>82C2GC</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3TW1CK</t>
+          <t>4QIDNE</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3E1O36</t>
+          <t>QQAQID</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>YKE12R</t>
+          <t>MW1BTB</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>8T8ZSQ</t>
+          <t>YYX4OV</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>OOR9IX</t>
+          <t>8LWLKK</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ONPMJ1</t>
+          <t>R7G2E9</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>UU4I14</t>
+          <t>H1VF36</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>VHOO6Y</t>
+          <t>ZQ5KM6</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>4HV1C6</t>
+          <t>DJIN38</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>LF5XAW</t>
+          <t>TWPSIN</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MPY12K</t>
+          <t>I7RSSY</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>V4WW71</t>
+          <t>Z5FYMO</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1LFXPA</t>
+          <t>ZPWWEC</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>OVVYRM</t>
+          <t>NBW1YE</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>KQ09D2</t>
+          <t>0R452U</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CWWEX9</t>
+          <t>FLSIHC</t>
         </is>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>KFOI10</t>
+          <t>RJSNPK</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>RVUKEL</t>
+          <t>IB9EWV</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>LBNNZU</t>
+          <t>6DTJVX</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>QXIFKH</t>
+          <t>OS3VVA</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>5GVNQV</t>
+          <t>CKJWQL</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2YF8S4</t>
+          <t>XE2JQQ</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>OXKJB5</t>
+          <t>26R3WP</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>FCU1JU</t>
+          <t>XOLWW7</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>K73PMX</t>
+          <t>M9YC2Z</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>GH6F8D</t>
+          <t>LLXD4J</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>V6GT6J</t>
+          <t>RM3601</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>FPKVT0</t>
+          <t>KFC6TY</t>
         </is>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>OUX1NL</t>
+          <t>8S7N8S</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1ZG72K</t>
+          <t>IRB5R1</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DCXHSR</t>
+          <t>LL6AZW</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>V1QEZ4</t>
+          <t>9SQTTQ</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>XNR0M2</t>
+          <t>S33VF6</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SG55FM</t>
+          <t>IXT39J</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>J6NXTG</t>
+          <t>ZZEDXA</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>OV0G43</t>
+          <t>GD7I4J</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>6ITGYR</t>
+          <t>220TBH</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0VLFQU</t>
+          <t>ZUUHZ7</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>30YB0C</t>
+          <t>JV76PL</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>A0DJJB</t>
+          <t>HSTQKP</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>654ITO</t>
+          <t>7ASJWI</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ZTTOUA</t>
+          <t>IB610U</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>62EWYK</t>
+          <t>NK46P3</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>G11QIA</t>
+          <t>63OBXP</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>GFLQVK</t>
+          <t>3T44CH</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>TRB2TZ</t>
+          <t>1PJ281</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>9QHZCN</t>
+          <t>8DVG4Z</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SUVVWB</t>
+          <t>E5SPHU</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1T9ZOM</t>
+          <t>WM822G</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>KN2BKX</t>
+          <t>R2K6OG</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4A8FE1</t>
+          <t>GF3196</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>XUDTSD</t>
+          <t>BC5OC4</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>U34TXU</t>
+          <t>FMG8ZU</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HQODVK</t>
+          <t>ARVKV7</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>CPEEDJ</t>
+          <t>F7ETZR</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>9OXD1B</t>
+          <t>VDHGZE</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>6PHTLY</t>
+          <t>8K7VFR</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2CBWKO</t>
+          <t>9H5MI7</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0RUIS6</t>
+          <t>YERD3G</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>U40B4E</t>
+          <t>F81EFQ</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>KVSCCF</t>
+          <t>BSXTLW</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>16OTRE</t>
+          <t>D4XZE1</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SWOQLT</t>
+          <t>Z20XCY</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>5TS8UX</t>
+          <t>DNAXP9</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>P0DL4J</t>
+          <t>4SWHJW</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>KQ9MSZ</t>
+          <t>KTYUPI</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>BJTUQE</t>
+          <t>V2C6NZ</t>
         </is>
       </c>
     </row>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>T0RS9J</t>
+          <t>K7D8CW</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>URXLGI</t>
+          <t>AVPGCD</t>
         </is>
       </c>
     </row>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ZMK304</t>
+          <t>8QL794</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>253MZ0</t>
+          <t>T635ZH</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>38KD5M</t>
+          <t>V2P73Q</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0F6C6R</t>
+          <t>80PBAE</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>XKIZLT</t>
+          <t>HUJ7JD</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>JRISRP</t>
+          <t>OEX8JW</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>3KGD07</t>
+          <t>QKUN3S</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>WGTFR3</t>
+          <t>IES3H6</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>GEAU20</t>
+          <t>6D2ALW</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>GALOTC</t>
+          <t>TPE0ZM</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>828WBB</t>
+          <t>XYS65L</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>4XDRH5</t>
+          <t>2I5RNB</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>CDGWXM</t>
+          <t>OTU406</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2MJC3N</t>
+          <t>0YD0CY</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>V6CDL3</t>
+          <t>QID5E7</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>BKDVLO</t>
+          <t>90UOA9</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DQATYN</t>
+          <t>EHYZUK</t>
         </is>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DDEOCW</t>
+          <t>7AFM8R</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>QKYHN4</t>
+          <t>TT5L4V</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>8IWIJY</t>
+          <t>RRD67I</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>C0V9SM</t>
+          <t>YD4HP1</t>
         </is>
       </c>
     </row>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>8Z085U</t>
+          <t>MA25C3</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>891OGR</t>
+          <t>NWVIZT</t>
         </is>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>TX5BC1</t>
+          <t>JL2SB3</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>1S3RJT</t>
+          <t>ZJX8UP</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>ZEUWY8</t>
+          <t>MH7VUG</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>5P31VA</t>
+          <t>7XLV0X</t>
         </is>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>6MRQOB</t>
+          <t>B868NM</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>PDGEW1</t>
+          <t>N4YCUB</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>AX87EH</t>
+          <t>3LX6SF</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>M8T4JE</t>
+          <t>XNFS08</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>9IEGJL</t>
+          <t>1R8BH0</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>842L6S</t>
+          <t>DJAE3Y</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>7AKJDL</t>
+          <t>RB6F7C</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SHSNKX</t>
+          <t>K9OAL8</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>5DUVET</t>
+          <t>YCZOVE</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>XNZM73</t>
+          <t>GVJ6UC</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>L4U746</t>
+          <t>CEBBJ2</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>S9NKHT</t>
+          <t>B263Z3</t>
         </is>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>MC6L0Y</t>
+          <t>OOYF8A</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>UOYTYP</t>
+          <t>XPA1O5</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0MU8QB</t>
+          <t>8Q6J7S</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>IAHQY8</t>
+          <t>98TWEI</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>S4R1X4</t>
+          <t>26N1O0</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>PNPMS6</t>
+          <t>5SSD6L</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>N0TG51</t>
+          <t>H6Z2DE</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>PW9K1K</t>
+          <t>ECNI7L</t>
         </is>
       </c>
     </row>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>A8VWSF</t>
+          <t>T1RZO5</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>SNI0R5</t>
+          <t>5JIO8I</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>I9SD3T</t>
+          <t>8ALDZW</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>VQRDS9</t>
+          <t>0OPH7N</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>4RR02K</t>
+          <t>7GHYF1</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>3V1U7A</t>
+          <t>MAQEF1</t>
         </is>
       </c>
     </row>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>17D89E</t>
+          <t>KVU5G0</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>CT6JVR</t>
+          <t>XWF0KV</t>
         </is>
       </c>
     </row>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>T5S5AP</t>
+          <t>0FU777</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>CLZ01S</t>
+          <t>S84RIA</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>18B1CZ</t>
+          <t>7V98P6</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Q7TNU3</t>
+          <t>FN5NB9</t>
         </is>
       </c>
     </row>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>QAKDIH</t>
+          <t>TPK67P</t>
         </is>
       </c>
     </row>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>72R7B3</t>
+          <t>G2273F</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>CXEPKF</t>
+          <t>CPN9GF</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>BDHR4X</t>
+          <t>ECVHDD</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>30KRMI</t>
+          <t>GNKSKR</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>EH0YXK</t>
+          <t>B7T3AY</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>MV42WS</t>
+          <t>ATN5M6</t>
         </is>
       </c>
     </row>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>5EMVPO</t>
+          <t>V1VUVF</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SI59FF</t>
+          <t>XB29ZN</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>IYCW58</t>
+          <t>6QG7EM</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>C4LRDD</t>
+          <t>6SW5AI</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>963T8L</t>
+          <t>IVJDMF</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>1HAPHM</t>
+          <t>X121DM</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>GOJ6MZ</t>
+          <t>AH3SDN</t>
         </is>
       </c>
     </row>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>V99RZZ</t>
+          <t>4FOWO7</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>431Y97</t>
+          <t>QI7QJW</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>TZGL3D</t>
+          <t>R5MYV4</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>V7VXSM</t>
+          <t>ECAQ6I</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>AMDHW9</t>
+          <t>61HG0J</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>MN3Z7Z</t>
+          <t>DULKDH</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>UVWFD5</t>
+          <t>VS047J</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2BP2NC</t>
+          <t>7RYEN0</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>8TQR50</t>
+          <t>YDEI98</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>6JFJH0</t>
+          <t>LHWXYZ</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>54JK4L</t>
+          <t>L1CYMB</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>7L7IMR</t>
+          <t>56PDHG</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>05DZUW</t>
+          <t>OQXDOE</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>AMTBVS</t>
+          <t>SEZW3B</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>SB8X9F</t>
+          <t>9PAXHG</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2FZMZ0</t>
+          <t>KP8ERR</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>KZED1G</t>
+          <t>EL88OD</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>ROU6GY</t>
+          <t>E1G9BI</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>ZQZAZL</t>
+          <t>7FCFSG</t>
         </is>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>I2U077</t>
+          <t>DPFTVM</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>5D2G33</t>
+          <t>K07546</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>335NN6</t>
+          <t>5YUYW8</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>T2I6FY</t>
+          <t>UU4977</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2NX9F0</t>
+          <t>QHZT2C</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>8543SM</t>
+          <t>QSYO9K</t>
         </is>
       </c>
     </row>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>85VRGR</t>
+          <t>I004TH</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>MI1WAV</t>
+          <t>O7E3AN</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>WTWXXS</t>
+          <t>J80L8T</t>
         </is>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>3AYTSR</t>
+          <t>VPRCPB</t>
         </is>
       </c>
     </row>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>3R8T89</t>
+          <t>YONPI8</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>M3736T</t>
+          <t>TOY8WF</t>
         </is>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>7DSMMD</t>
+          <t>H85MAL</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>9S9WER</t>
+          <t>PJQAYK</t>
         </is>
       </c>
     </row>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0PF97T</t>
+          <t>3BAFHM</t>
         </is>
       </c>
     </row>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>8AU360</t>
+          <t>WFBYV7</t>
         </is>
       </c>
     </row>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>9AGKJT</t>
+          <t>0EC798</t>
         </is>
       </c>
     </row>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>QHIOGP</t>
+          <t>78PTYG</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>N4CBQX</t>
+          <t>0EH641</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>ZSJ0TS</t>
+          <t>T5I3SD</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>IMEBQY</t>
+          <t>BCWRMA</t>
         </is>
       </c>
     </row>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>1CRBIL</t>
+          <t>UNAO2I</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>J0H2YV</t>
+          <t>ZAR92Z</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>P6CVLC</t>
+          <t>8PW3CB</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>5AHBMR</t>
+          <t>HSQKVQ</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>VTW8Y5</t>
+          <t>R1WCQK</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>ESM3ZA</t>
+          <t>O8QCKM</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>ZCC9JD</t>
+          <t>MUZKXY</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>JY1QE5</t>
+          <t>E307NQ</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>OW83IC</t>
+          <t>NWJJSR</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>RHADJS</t>
+          <t>6K6UF3</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>434BKE</t>
+          <t>LMJKMD</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0OEUTL</t>
+          <t>W5D0YA</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>CAO73Z</t>
+          <t>GL9VTQ</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>X53BCZ</t>
+          <t>E2FKTB</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>71Z9O1</t>
+          <t>6B2W2J</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>8GGCJG</t>
+          <t>JDMZR0</t>
         </is>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>35RM7J</t>
+          <t>00DQ7E</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>H3N5BL</t>
+          <t>TOPQ3M</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>WIZI3Z</t>
+          <t>SXOMEE</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>NQZXHO</t>
+          <t>2HAI9L</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>YPVAKB</t>
+          <t>0ALUK4</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>BVAMHY</t>
+          <t>9PUNUQ</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>HIUT6L</t>
+          <t>S54N5M</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>18X8X2</t>
+          <t>5DZW71</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0S1PX9</t>
+          <t>VQ5WGH</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>6F60P7</t>
+          <t>SPTP67</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>8HIGI5</t>
+          <t>UW5QS3</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>ALEKW6</t>
+          <t>MM4TRM</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>7XTP4P</t>
+          <t>KUXY71</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>2RFCFU</t>
+          <t>RDCYZ3</t>
         </is>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>FRZRXC</t>
+          <t>TWYWZK</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>K350O5</t>
+          <t>9IBOQD</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>HI10HI</t>
+          <t>S6DMW3</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>ODQLLZ</t>
+          <t>ZNCEPQ</t>
         </is>
       </c>
     </row>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>B47UAD</t>
+          <t>PXDYNZ</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>5XGSR2</t>
+          <t>JARGOX</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>OMQ3W0</t>
+          <t>3X148D</t>
         </is>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>LFT9V6</t>
+          <t>HP90TQ</t>
         </is>
       </c>
     </row>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>KP2T7R</t>
+          <t>UZTEQT</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>2EIZKU</t>
+          <t>KHCVGC</t>
         </is>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>JPX7QS</t>
+          <t>UN3SEI</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>R4J1YU</t>
+          <t>6KHKHN</t>
         </is>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>7QMI6V</t>
+          <t>AS5ADC</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>4N6FWK</t>
+          <t>V9ROLR</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>IP5H2H</t>
+          <t>VDJFUP</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>FAQJ1E</t>
+          <t>N7JIT1</t>
         </is>
       </c>
     </row>
